--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55BA0E6C-C3E9-C146-87FA-C4264D79B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FACE7D28-1283-F048-B44B-50069FB8463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1020" windowWidth="12980" windowHeight="17200" activeTab="1" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="200" yWindow="1020" windowWidth="18940" windowHeight="17200" activeTab="2" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
     <sheet name="anomaly_detection" sheetId="2" r:id="rId2"/>
+    <sheet name="classification" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="150">
   <si>
     <t>MSL</t>
   </si>
@@ -387,6 +388,105 @@
   </si>
   <si>
     <t>TP: 41 TN: 8235, FP: 1, FN: 0</t>
+  </si>
+  <si>
+    <t>POT F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TP': 181, 'TN': 1674, 'FP': 127, 'FN': 0,</t>
+  </si>
+  <si>
+    <t>'TP': 1141, 'TN': 1043, 'FP': 18, 'FN': 0,</t>
+  </si>
+  <si>
+    <t>'TP': 1141, 'TN': 1018, 'FP': 43, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 11, 'TN': 1596, 'FP': 121, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 131, 'TN': 4445, 'FP': 1425, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 69, 'TN': 2030, 'FP': 19, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 2089, 'FP': 4, 'FN': 26</t>
+  </si>
+  <si>
+    <t>'TP': 423, 'TN': 4316, 'FP': 118, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 251, 'TN': 1719, 'FP': 58, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 251, 'TN': 1658, 'FP': 30, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 301, 'TN': 1901, 'FP': 2, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 21, 'TN': 1337, 'FP': 1399, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 312, 'TN': 1736, 'FP': 68, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 137, 'TN': 1685, 'FP': 81, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 121, 'TN': 2169, 'FP': 41, 'FN': 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TP': 252, 'TN': 2002, 'FP': 28, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 71, 'TN': 3196, 'FP': 56, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 151, 'TN': 3599, 'FP': 73, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 222, 'TN': 2045, 'FP': 210, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 112, 'TN': 823, 'FP': 13, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 181, 'TN': 0, 'FP': 5820, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 102, 'TN': 1123, 'FP': 146, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 228, 'TN': 3136, 'FP': 23, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 641, 'TN': 1438, 'FP': 13, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 651, 'TN': 1376, 'FP': 65, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 101, 'TN': 1926, 'FP': 30, 'FN': 0</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+  </si>
+  <si>
+    <t>insect wingbeats</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>test accuracy</t>
+  </si>
+  <si>
+    <t>Spoken Arabic Digits</t>
   </si>
 </sst>
 </file>
@@ -2221,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2233,12 +2333,12 @@
     <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2248,8 +2348,11 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2265,8 +2368,14 @@
       <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2282,8 +2391,14 @@
       <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2299,8 +2414,14 @@
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2316,8 +2437,14 @@
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0.154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2333,8 +2460,14 @@
       <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0.155</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2350,8 +2483,14 @@
       <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.879</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2367,8 +2506,14 @@
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2384,8 +2529,14 @@
       <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0.878</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2401,8 +2552,14 @@
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2418,8 +2575,14 @@
       <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2435,8 +2598,14 @@
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0.997</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2452,8 +2621,14 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2469,8 +2644,14 @@
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2486,8 +2667,14 @@
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2503,8 +2690,14 @@
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2520,8 +2713,14 @@
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2537,8 +2736,14 @@
       <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2554,8 +2759,14 @@
       <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2571,8 +2782,14 @@
       <c r="E21" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2588,8 +2805,14 @@
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2605,8 +2828,14 @@
       <c r="E23" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2622,8 +2851,14 @@
       <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2639,8 +2874,14 @@
       <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2656,8 +2897,14 @@
       <c r="E26" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2673,8 +2920,14 @@
       <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2690,8 +2943,14 @@
       <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0.871</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29">
         <f>AVERAGE(B3:B28)</f>
         <v>0.9453076923076924</v>
@@ -2700,13 +2959,17 @@
         <f>AVERAGE(D3:D28)</f>
         <v>0.45592307692307699</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F29">
+        <f>AVERAGE(F3:F28)</f>
+        <v>0.71823076923076912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3311,10 +3574,52 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="D87">
-        <f>AVERAGE(D32:D86)</f>
-        <v>0.5276909090909091</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356FC20-9241-624A-9167-495081A5015F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FACE7D28-1283-F048-B44B-50069FB8463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A279109F-FC82-F946-88F9-8651491E78EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1020" windowWidth="18940" windowHeight="17200" activeTab="2" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="1440" yWindow="1000" windowWidth="26740" windowHeight="17200" activeTab="1" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
     <sheet name="anomaly_detection" sheetId="2" r:id="rId2"/>
     <sheet name="classification" sheetId="3" r:id="rId3"/>
+    <sheet name="forecasting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="215">
   <si>
     <t>MSL</t>
   </si>
@@ -480,20 +481,215 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>test accuracy</t>
   </si>
   <si>
     <t>Spoken Arabic Digits</t>
+  </si>
+  <si>
+    <t>TrainSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TestSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NumDimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeriesLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NumClasses</t>
+  </si>
+  <si>
+    <t>**each dataset performs better than previous models in original paper</t>
+  </si>
+  <si>
+    <t>protocol: test on validiation set of SMD, SMAP, and MSL datasets.  Do not use test set because these contain anomalies</t>
+  </si>
+  <si>
+    <t>'TP': 751, 'TN': 7523, 'FP': 34, 'FN': 0,</t>
+  </si>
+  <si>
+    <t>'TP': 448, 'TN': 6750, 'FP': 34, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 508, 'TN': 7823, 'FP': 37, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1398, 'TN': 6997, 'FP': 38, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 3212, 'TN': 5008, 'FP': 37, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2812, 'TN': 5410, 'FP': 33, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 321, 'TN': 7835, 'FP': 39, 'FN': 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TP': 66, 'TN': 8096, 'FP': 39, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 281, 'TN': 7889, 'FP': 41, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 623, 'TN': 7779, 'FP': 31, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 351, 'TN': 7813, 'FP': 39, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 322, 'TN': 7996, 'FP': 39, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 295, 'TN': 8012, 'FP': 59, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 583, 'TN': 7744, 'FP': 37, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 264, 'TN': 8129, 'FP': 50, 'FN': 0,</t>
+  </si>
+  <si>
+    <t>'TP': 85, 'TN': 8371, 'FP': 85, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 3258, 'TN': 5169, 'FP': 32, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1226, 'TN': 6867, 'FP': 17, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1336, 'TN': 7022, 'FP': 36, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 4218, 'TN': 4258, 'FP': 20, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 3276, 'TN': 5108, 'FP': 157, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 3247, 'TN': 5109, 'FP': 67, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 7616, 'FP': 88, 'FN': 111</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 7839, 'FP': 81, 'FN': 186</t>
+  </si>
+  <si>
+    <t>'TP': 111, 'TN': 7797, 'FP': 73, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 121, 'TN': 8112, 'FP': 137, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 41, 'TN': 7165, 'FP': 56, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 51, 'TN': 0, 'FP': 7478, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 81, 'TN': 7614, 'FP': 90, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2701, 'TN': 4821, 'FP': 70, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 101, 'TN': 8376, 'FP': 8, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 7139, 'FP': 4, 'FN': 443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TP': 51, 'TN': 7570, 'FP': 187, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1536, 'TN': 6892, 'FP': 36, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1784, 'TN': 6577, 'FP': 214, 'FN': 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TP': 51, 'TN': 7657, 'FP': 67, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1155, 'TN': 6163, 'FP': 38, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2956, 'TN': 5551, 'FP': 69, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 31, 'TN': 7502, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 184, 'TN': 8165, 'FP': 82, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 61, 'TN': 7245, 'FP': 26, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2739, 'TN': 4994, 'FP': 135, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 71, 'TN': 7833, 'FP': 41, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 101, 'TN': 8300, 'FP': 140, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 268, 'TN': 7156, 'FP': 408, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1651, 'TN': 6058, 'FP': 263, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 81, 'TN': 6716, 'FP': 348, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 51, 'TN': 2701, 'FP': 1842, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 4313, 'FP': 0, 'FN': 41</t>
+  </si>
+  <si>
+    <t>'TP': 2401, 'TN': 6021, 'FP': 130, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 161, 'TN': 0, 'FP': 7403, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1226, 'TN': 6845, 'FP': 39, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 4464, 'FP': 56, 'FN': 3805</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 4463, 'FP': 57, 'FN': 3864</t>
+  </si>
+  <si>
+    <t>'TP': 41, 'TN': 8194, 'FP': 42, 'FN': 0</t>
+  </si>
+  <si>
+    <t>30 of 55 over 90</t>
+  </si>
+  <si>
+    <t>5 over 70</t>
+  </si>
+  <si>
+    <t>7 over 50</t>
+  </si>
+  <si>
+    <t>9 under .1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +709,14 @@
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,10 +739,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2321,16 +2526,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2979,8 +3184,14 @@
       <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2990,8 +3201,14 @@
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3001,8 +3218,14 @@
       <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3012,8 +3235,14 @@
       <c r="E35" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>5</v>
       </c>
@@ -3023,8 +3252,14 @@
       <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>6</v>
       </c>
@@ -3034,8 +3269,14 @@
       <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>7</v>
       </c>
@@ -3045,8 +3286,14 @@
       <c r="E38" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3056,8 +3303,14 @@
       <c r="E39" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>9</v>
       </c>
@@ -3067,8 +3320,14 @@
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>10</v>
       </c>
@@ -3078,8 +3337,14 @@
       <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>11</v>
       </c>
@@ -3089,8 +3354,14 @@
       <c r="E42" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>12</v>
       </c>
@@ -3100,8 +3371,14 @@
       <c r="E43" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>13</v>
       </c>
@@ -3111,8 +3388,14 @@
       <c r="E44" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>14</v>
       </c>
@@ -3122,8 +3405,14 @@
       <c r="E45" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>15</v>
       </c>
@@ -3133,8 +3422,14 @@
       <c r="E46" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>16</v>
       </c>
@@ -3144,8 +3439,14 @@
       <c r="E47" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>17</v>
       </c>
@@ -3155,8 +3456,14 @@
       <c r="E48" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0.995</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>18</v>
       </c>
@@ -3166,8 +3473,14 @@
       <c r="E49" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>19</v>
       </c>
@@ -3177,8 +3490,14 @@
       <c r="E50" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>20</v>
       </c>
@@ -3188,8 +3507,14 @@
       <c r="E51" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0.998</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>21</v>
       </c>
@@ -3199,8 +3524,14 @@
       <c r="E52" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>22</v>
       </c>
@@ -3210,8 +3541,14 @@
       <c r="E53" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0.99</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>23</v>
       </c>
@@ -3221,8 +3558,14 @@
       <c r="E54" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>24</v>
       </c>
@@ -3232,8 +3575,14 @@
       <c r="E55" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>25</v>
       </c>
@@ -3243,8 +3592,14 @@
       <c r="E56" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0.753</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>26</v>
       </c>
@@ -3254,8 +3609,14 @@
       <c r="E57" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>27</v>
       </c>
@@ -3265,8 +3626,14 @@
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>28</v>
       </c>
@@ -3276,8 +3643,14 @@
       <c r="E59" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>29</v>
       </c>
@@ -3287,8 +3660,14 @@
       <c r="E60" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>30</v>
       </c>
@@ -3298,8 +3677,14 @@
       <c r="E61" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>31</v>
       </c>
@@ -3309,8 +3694,14 @@
       <c r="E62" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>32</v>
       </c>
@@ -3320,8 +3711,14 @@
       <c r="E63" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>33</v>
       </c>
@@ -3331,8 +3728,14 @@
       <c r="E64" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>34</v>
       </c>
@@ -3342,8 +3745,14 @@
       <c r="E65" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>35</v>
       </c>
@@ -3353,8 +3762,14 @@
       <c r="E66" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>36</v>
       </c>
@@ -3364,8 +3779,14 @@
       <c r="E67" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>37</v>
       </c>
@@ -3375,8 +3796,14 @@
       <c r="E68" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>38</v>
       </c>
@@ -3386,8 +3813,14 @@
       <c r="E69" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>39</v>
       </c>
@@ -3397,8 +3830,14 @@
       <c r="E70" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>40</v>
       </c>
@@ -3408,8 +3847,14 @@
       <c r="E71" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>41</v>
       </c>
@@ -3419,8 +3864,14 @@
       <c r="E72" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>42</v>
       </c>
@@ -3430,8 +3881,14 @@
       <c r="E73" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>43</v>
       </c>
@@ -3441,8 +3898,14 @@
       <c r="E74" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>44</v>
       </c>
@@ -3452,8 +3915,17 @@
       <c r="E75" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>45</v>
       </c>
@@ -3463,8 +3935,17 @@
       <c r="E76" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>46</v>
       </c>
@@ -3474,8 +3955,17 @@
       <c r="E77" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>47</v>
       </c>
@@ -3485,8 +3975,17 @@
       <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>0.318</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>48</v>
       </c>
@@ -3496,8 +3995,14 @@
       <c r="E79" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>49</v>
       </c>
@@ -3507,8 +4012,14 @@
       <c r="E80" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>50</v>
       </c>
@@ -3518,8 +4029,14 @@
       <c r="E81" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>51</v>
       </c>
@@ -3529,8 +4046,14 @@
       <c r="E82" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>52</v>
       </c>
@@ -3540,8 +4063,14 @@
       <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>53</v>
       </c>
@@ -3551,8 +4080,14 @@
       <c r="E84" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>54</v>
       </c>
@@ -3562,8 +4097,14 @@
       <c r="E85" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>55</v>
       </c>
@@ -3572,6 +4113,18 @@
       </c>
       <c r="E86" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="F86">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="F87">
+        <f>AVERAGE(F32:F86)</f>
+        <v>0.72273818181818184</v>
       </c>
     </row>
   </sheetData>
@@ -3581,45 +4134,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356FC20-9241-624A-9167-495081A5015F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>146</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>149</v>
       </c>
       <c r="B2">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>6599</v>
+      </c>
+      <c r="D2">
+        <v>2199</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>93</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C3">
+        <v>204</v>
+      </c>
+      <c r="D3">
+        <v>205</v>
+      </c>
+      <c r="E3" s="3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>405</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>145</v>
+      </c>
+      <c r="B4">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33FF96-9EB9-994B-A906-1A82E9A2985E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A279109F-FC82-F946-88F9-8651491E78EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96FEF073-3C2B-9446-AD48-1B76A95E854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1000" windowWidth="26740" windowHeight="17200" activeTab="1" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="11660" windowHeight="17200" activeTab="1" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+  <si>
+    <t>SMD</t>
+  </si>
   <si>
     <t>MSL</t>
   </si>
@@ -673,16 +676,109 @@
     <t>'TP': 41, 'TN': 8194, 'FP': 42, 'FN': 0</t>
   </si>
   <si>
-    <t>30 of 55 over 90</t>
-  </si>
-  <si>
-    <t>5 over 70</t>
-  </si>
-  <si>
-    <t>7 over 50</t>
-  </si>
-  <si>
-    <t>9 under .1</t>
+    <t>pot f1</t>
+  </si>
+  <si>
+    <t>'TP': 161, 'TN': 17173, 'FP': 5970, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 308, 'TN': 25207, 'FP': 2189, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 817, 'TN': 20298, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 269, 'TN': 21297, 'FP': 3, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2694, 'TN': 22621, 'FP': 1372, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 632, 'TN': 17711, 'FP': 60, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1170, 'TN': 19727, 'FP': 10, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 426, 'TN': 20967, 'FP': 50, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1047, 'TN': 15586, 'FP': 4288, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 424, 'TN': 26351, 'FP': 371, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 980, 'TN': 18575, 'FP': 0, 'FN': 0,</t>
+  </si>
+  <si>
+    <t>'TP': 1371, 'TN': 23119, 'FP': 2820, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 198, 'TN': 14278, 'FP': 13578, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2833, 'TN': 18523, 'FP': 44, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2398, 'TN': 18706, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>TP': 1194, 'TN': 25101, 'FP': 42, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 763, 'TN': 18939, 'FP': 9, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 434, 'TN': 20264, 'FP': 6812, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1694, 'TN': 17921, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 100, 'TN': 21968, 'FP': 45, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1755, 'TN': 24266, 'FP': 609, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 0, 'TN': 20832, 'FP': 0, 'FN': 1083</t>
+  </si>
+  <si>
+    <t>'TP': 303, 'TN': 21543, 'FP': 5871, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 542, 'TN': 21032, 'FP': 7, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 417, 'TN': 19178, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 977, 'TN': 2415, 'FP': 18558, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 3708, 'TN': 14027, 'FP': 4, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 720, 'TN': 20399, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 161, 'TN': 17360, 'FP': 5783, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 308, 'TN': 27392, 'FP': 4, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 269, 'TN': 21300, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 2694, 'TN': 23991, 'FP': 2, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 632, 'TN': 17769, 'FP': 2, 'FN': 0</t>
+  </si>
+  <si>
+    <t>'TP': 1170, 'TN': 19737, 'FP': 0, 'FN': 0</t>
   </si>
 </sst>
 </file>
@@ -739,11 +835,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,27 +1166,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1636,22 +1733,22 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
         <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2238,22 +2335,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2526,35 +2623,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="E87" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2565,19 +2663,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0.98899999999999999</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>0.74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2588,19 +2686,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0.999</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0.99199999999999999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2611,19 +2709,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0.999</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>0.98199999999999998</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2634,19 +2732,19 @@
         <v>0.44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1.2E-2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>0.154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2657,19 +2755,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0.16400000000000001</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>0.155</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2680,19 +2778,19 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>6.3E-2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>0.879</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2703,19 +2801,19 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>2.4E-2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2726,19 +2824,19 @@
         <v>0.871</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0.16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>0.878</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2749,19 +2847,19 @@
         <v>0.99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0.22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>0.89600000000000002</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2772,19 +2870,19 @@
         <v>0.99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0.22900000000000001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>0.94399999999999995</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2795,19 +2893,19 @@
         <v>0.997</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>0.24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0.997</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2818,19 +2916,19 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2841,19 +2939,19 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>0.25700000000000001</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>0.90200000000000002</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2864,19 +2962,19 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0.93500000000000005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>0.77200000000000002</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2887,19 +2985,19 @@
         <v>0.996</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>0.85499999999999998</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2910,19 +3008,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>0.19900000000000001</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>0.94699999999999995</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2933,19 +3031,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>0.94699999999999995</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0.71699999999999997</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2956,19 +3054,19 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>0.96499999999999997</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0.80500000000000005</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2979,19 +3077,19 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>0.16500000000000001</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0.67900000000000005</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3002,19 +3100,19 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>0.21099999999999999</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>0.94499999999999995</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3025,19 +3123,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>0.06</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3048,19 +3146,19 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>0.79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>0.58299999999999996</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3071,19 +3169,19 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>0.126</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>0.95199999999999996</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3094,19 +3192,19 @@
         <v>0.999</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>0.996</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>0.99</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3117,19 +3215,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>0.98599999999999999</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27">
         <v>0.95199999999999996</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3140,19 +3238,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>0.99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>0.871</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3171,7 +3269,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3182,13 +3280,13 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>0.97799999999999998</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3199,13 +3297,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>0.96299999999999997</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3216,13 +3314,13 @@
         <v>0.114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>0.96499999999999997</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3233,13 +3331,13 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>0.98699999999999999</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3250,13 +3348,13 @@
         <v>0.999</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36">
         <v>0.99399999999999999</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3267,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37">
         <v>0.99399999999999999</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3284,13 +3382,13 @@
         <v>0.997</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38">
         <v>0.94299999999999995</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3301,13 +3399,13 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <v>0.77200000000000002</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3318,13 +3416,13 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>0.93200000000000005</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3335,13 +3433,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F41">
         <v>0.97599999999999998</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3352,13 +3450,13 @@
         <v>0.999</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>0.94699999999999995</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3369,13 +3467,13 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43">
         <v>0.94299999999999995</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3386,13 +3484,13 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44">
         <v>0.90900000000000003</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3403,13 +3501,13 @@
         <v>0.13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45">
         <v>0.96899999999999997</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3420,13 +3518,13 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46">
         <v>0.91300000000000003</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3437,13 +3535,13 @@
         <v>0.02</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47">
         <v>0.66600000000000004</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3454,13 +3552,13 @@
         <v>0.999</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <v>0.995</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3471,13 +3569,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F49">
         <v>0.99299999999999999</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3488,13 +3586,13 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50">
         <v>0.98699999999999999</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3505,13 +3603,13 @@
         <v>0.999</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51">
         <v>0.998</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3522,13 +3620,13 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F52">
         <v>0.97699999999999998</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3539,13 +3637,13 @@
         <v>0.999</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53">
         <v>0.99</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3556,13 +3654,13 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3573,13 +3671,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3590,13 +3688,13 @@
         <v>2.7E-2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56">
         <v>0.753</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3607,13 +3705,13 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57">
         <v>0.63900000000000001</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3624,13 +3722,13 @@
         <v>0.01</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58">
         <v>0.59399999999999997</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3641,13 +3739,13 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F59">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3658,13 +3756,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60">
         <v>0.64300000000000002</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3675,13 +3773,13 @@
         <v>0.999</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61">
         <v>0.98699999999999999</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3692,13 +3790,13 @@
         <v>2.3E-2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F62">
         <v>0.96199999999999997</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3709,13 +3807,13 @@
         <v>0.11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3726,16 +3824,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F64">
         <v>0.35299999999999998</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>34</v>
       </c>
@@ -3743,16 +3841,16 @@
         <v>0.89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65">
         <v>0.98799999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>35</v>
       </c>
@@ -3760,16 +3858,16 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>0.94299999999999995</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>36</v>
       </c>
@@ -3777,16 +3875,16 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67">
         <v>0.60299999999999998</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>37</v>
       </c>
@@ -3794,16 +3892,16 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68">
         <v>0.98399999999999999</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>38</v>
       </c>
@@ -3811,16 +3909,16 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F69">
         <v>0.98799999999999999</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>39</v>
       </c>
@@ -3828,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>40</v>
       </c>
@@ -3845,16 +3943,16 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71">
         <v>0.81799999999999995</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>41</v>
       </c>
@@ -3862,16 +3960,16 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F72">
         <v>0.82399999999999995</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>42</v>
       </c>
@@ -3879,16 +3977,16 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F73">
         <v>0.97599999999999998</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>43</v>
       </c>
@@ -3896,16 +3994,16 @@
         <v>0.04</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F74">
         <v>0.77600000000000002</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>44</v>
       </c>
@@ -3913,19 +4011,16 @@
         <v>0.3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75">
         <v>0.59099999999999997</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>45</v>
       </c>
@@ -3933,19 +4028,16 @@
         <v>0.89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F76">
         <v>0.56799999999999995</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>46</v>
       </c>
@@ -3953,19 +4045,16 @@
         <v>0.98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F77">
         <v>0.92600000000000005</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>47</v>
       </c>
@@ -3973,19 +4062,16 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F78">
         <v>0.318</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>48</v>
       </c>
@@ -3993,16 +4079,16 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>49</v>
       </c>
@@ -4010,16 +4096,16 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>50</v>
       </c>
@@ -4027,16 +4113,16 @@
         <v>0.998</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F81">
         <v>0.97399999999999998</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>51</v>
       </c>
@@ -4044,16 +4130,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F82">
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>52</v>
       </c>
@@ -4061,16 +4147,16 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83">
         <v>0.98399999999999999</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>53</v>
       </c>
@@ -4078,16 +4164,16 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>54</v>
       </c>
@@ -4095,16 +4181,16 @@
         <v>0.97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>55</v>
       </c>
@@ -4112,19 +4198,383 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86">
         <v>0.66100000000000003</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="F87">
         <f>AVERAGE(F32:F86)</f>
         <v>0.72273818181818184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H91">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>0.22</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H95">
+        <v>0.999</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H96">
+        <v>0.998</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>0.996</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>0.113</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>21</v>
+      </c>
+      <c r="F111">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>22</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="F113">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>24</v>
+      </c>
+      <c r="F114">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>26</v>
+      </c>
+      <c r="F116">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>27</v>
+      </c>
+      <c r="F117">
+        <v>0.999</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>28</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="F119">
+        <f>AVERAGE(F91:F118)</f>
+        <v>0.69412142857142844</v>
       </c>
     </row>
   </sheetData>
@@ -4150,30 +4600,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>0.98</v>
@@ -4196,7 +4646,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>0.76600000000000001</v>
@@ -4219,7 +4669,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>0.65200000000000002</v>
@@ -4242,7 +4692,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4712,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96FEF073-3C2B-9446-AD48-1B76A95E854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10059DA3-3BA7-B147-9186-7971DF5F23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="11660" windowHeight="17200" activeTab="1" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="25520" windowHeight="17200" activeTab="3" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="252">
   <si>
     <t>SMD</t>
   </si>
@@ -508,9 +508,6 @@
     <t>**each dataset performs better than previous models in original paper</t>
   </si>
   <si>
-    <t>protocol: test on validiation set of SMD, SMAP, and MSL datasets.  Do not use test set because these contain anomalies</t>
-  </si>
-  <si>
     <t>'TP': 751, 'TN': 7523, 'FP': 34, 'FN': 0,</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>'TP': 41, 'TN': 8194, 'FP': 42, 'FN': 0</t>
   </si>
   <si>
-    <t>pot f1</t>
-  </si>
-  <si>
     <t>'TP': 161, 'TN': 17173, 'FP': 5970, 'FN': 0</t>
   </si>
   <si>
@@ -779,14 +773,56 @@
   </si>
   <si>
     <t>'TP': 1170, 'TN': 19737, 'FP': 0, 'FN': 0</t>
+  </si>
+  <si>
+    <t>threshold set with only validation set</t>
+  </si>
+  <si>
+    <t>threshold set with traininig+ validation set</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">protocol: test on validiation set of SMD, SMAP, and MSL datasets. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Do not use test set because these contain anomalies</t>
+    </r>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>Sparse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -814,13 +850,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -835,12 +890,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2623,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E87" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2636,12 +2694,12 @@
     <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2654,8 +2712,20 @@
       <c r="F2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2677,8 +2747,11 @@
       <c r="G3" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2700,8 +2773,11 @@
       <c r="G4" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2723,8 +2799,11 @@
       <c r="G5" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2746,8 +2825,11 @@
       <c r="G6" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2769,8 +2851,11 @@
       <c r="G7" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2792,8 +2877,11 @@
       <c r="G8" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2815,8 +2903,11 @@
       <c r="G9" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2838,8 +2929,11 @@
       <c r="G10" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2861,8 +2955,11 @@
       <c r="G11" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2884,8 +2981,11 @@
       <c r="G12" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2907,8 +3007,11 @@
       <c r="G13" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2930,8 +3033,11 @@
       <c r="G14" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2953,8 +3059,11 @@
       <c r="G15" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2976,8 +3085,11 @@
       <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2999,8 +3111,11 @@
       <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3022,8 +3137,11 @@
       <c r="G18" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3045,8 +3163,11 @@
       <c r="G19" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3068,8 +3189,11 @@
       <c r="G20" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3091,8 +3215,11 @@
       <c r="G21" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3114,8 +3241,11 @@
       <c r="G22" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3137,8 +3267,11 @@
       <c r="G23" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3160,8 +3293,11 @@
       <c r="G24" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3183,8 +3319,11 @@
       <c r="G25" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3206,8 +3345,11 @@
       <c r="G26" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3229,8 +3371,11 @@
       <c r="G27" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3252,1329 +3397,1975 @@
       <c r="G28" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29">
         <f>AVERAGE(B3:B28)</f>
         <v>0.9453076923076924</v>
       </c>
-      <c r="D29">
+      <c r="F29">
+        <v>0.96</v>
+      </c>
+      <c r="H29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30">
         <f>AVERAGE(D3:D28)</f>
         <v>0.45592307692307699</v>
       </c>
-      <c r="F29">
-        <f>AVERAGE(F3:F28)</f>
-        <v>0.71823076923076912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30">
+        <f>AVERAGE(F3:F29)</f>
+        <v>0.72718518518518505</v>
+      </c>
+      <c r="H30" s="5">
+        <f>AVERAGE(H3:H29)</f>
+        <v>0.75377777777777766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="L33">
+        <f>H33-F33</f>
+        <v>-2.7000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33">
+      <c r="H34">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="L34">
+        <f t="shared" ref="L34:L87" si="0">H34-F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0.114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>0.114</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="H35">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
+      <c r="H36">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.999</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F36">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F37">
         <v>0.99399999999999999</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37">
+        <v>0.995</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38">
+        <v>0.995</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0.997</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
+      <c r="H39">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>0.999</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G44" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44">
+        <v>0.94</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>0.13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>-7.5000000000000067E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>0.02</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999921E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>0.999</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>0.995</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>0.999</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52">
+        <v>0.998</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52">
+        <v>0.998</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>0.999</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54">
+        <v>0.99</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57">
+        <v>0.753</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>-4.9000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>-0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59">
+        <v>0.443</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>-0.15099999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H61">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>0.999</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H62">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>-0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>0.11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65">
+        <v>0.495</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0.14200000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>0.89</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>-0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>38</v>
+      </c>
+      <c r="D70">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000067E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="D73">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74">
+        <v>0.98</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>43</v>
+      </c>
+      <c r="D75">
+        <v>0.04</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>0.3</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="0"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>0.89</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H77">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="0"/>
+        <v>-9.4999999999999973E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>46</v>
+      </c>
+      <c r="D78">
+        <v>0.98</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>47</v>
+      </c>
+      <c r="D79">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79">
+        <v>0.318</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H79">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="0"/>
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>49</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>0.998</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>51</v>
+      </c>
+      <c r="D83">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="0"/>
+        <v>4.2400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>53</v>
+      </c>
+      <c r="D85">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>0.97</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H87">
+        <v>0.66</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="F88">
+        <f>AVERAGE(F33:F87)</f>
+        <v>0.72273818181818184</v>
+      </c>
+      <c r="H88">
+        <f>AVERAGE(H33:H87)</f>
+        <v>0.70172727272727287</v>
+      </c>
+      <c r="L88">
+        <f>SUM(L33:L87)</f>
+        <v>-1.1555999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L92">
+        <f>H92-F92</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>0.22</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H93">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ref="L93:L119" si="1">H93-F93</f>
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000494E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H96">
+        <v>0.999</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>0.20199999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H97">
+        <v>0.998</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000038E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="F98">
+        <v>0.996</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H99">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>-0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H101">
+        <v>0.999</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>0.30300000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H103">
+        <v>0.999</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H104">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H105">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="F107">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H107">
         <v>0.997</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="D42">
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="F108">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>0.113</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H109">
+        <v>0.997</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H111">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>0.15500000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>21</v>
+      </c>
+      <c r="F112">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>22</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="F114">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>24</v>
+      </c>
+      <c r="F115">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>-0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>25</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>26</v>
+      </c>
+      <c r="F117">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H117">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>27</v>
+      </c>
+      <c r="F118">
         <v>0.999</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="G43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="D44">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>0.13</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="D47">
-        <v>0.02</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="D48">
+      <c r="G118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H118">
         <v>0.999</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48">
-        <v>0.995</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>18</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>19</v>
-      </c>
-      <c r="D50">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>0.999</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51">
-        <v>0.998</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>22</v>
-      </c>
-      <c r="D53">
-        <v>0.999</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53">
-        <v>0.99</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>25</v>
-      </c>
-      <c r="D56">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56">
-        <v>0.753</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>26</v>
-      </c>
-      <c r="D57">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>27</v>
-      </c>
-      <c r="D58">
-        <v>0.01</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
         <v>28</v>
       </c>
-      <c r="D59">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="D60">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>0.999</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>31</v>
-      </c>
-      <c r="D62">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>0.11</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>33</v>
-      </c>
-      <c r="D64">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>34</v>
-      </c>
-      <c r="D65">
-        <v>0.89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>35</v>
-      </c>
-      <c r="D66">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>36</v>
-      </c>
-      <c r="D67">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>37</v>
-      </c>
-      <c r="D68">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>38</v>
-      </c>
-      <c r="D69">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>39</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>40</v>
-      </c>
-      <c r="D71">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>41</v>
-      </c>
-      <c r="D72">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>42</v>
-      </c>
-      <c r="D73">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>43</v>
-      </c>
-      <c r="D74">
-        <v>0.04</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>44</v>
-      </c>
-      <c r="D75">
-        <v>0.3</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>45</v>
-      </c>
-      <c r="D76">
-        <v>0.89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>46</v>
-      </c>
-      <c r="D77">
-        <v>0.98</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>47</v>
-      </c>
-      <c r="D78">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F78">
-        <v>0.318</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <v>48</v>
-      </c>
-      <c r="D79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
-        <v>49</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>50</v>
-      </c>
-      <c r="D81">
-        <v>0.998</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
-        <v>51</v>
-      </c>
-      <c r="D82">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F82">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
-        <v>52</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84">
-        <v>53</v>
-      </c>
-      <c r="D84">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85">
-        <v>54</v>
-      </c>
-      <c r="D85">
-        <v>0.97</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86">
-        <v>55</v>
-      </c>
-      <c r="D86">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F86">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="F87">
-        <f>AVERAGE(F32:F86)</f>
-        <v>0.72273818181818184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H91">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="F92">
-        <v>0.22</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="F94">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
-        <v>5</v>
-      </c>
-      <c r="F95">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H95">
-        <v>0.999</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
-        <v>6</v>
-      </c>
-      <c r="F96">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H96">
-        <v>0.998</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
-        <v>7</v>
-      </c>
-      <c r="F97">
-        <v>0.996</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
-        <v>8</v>
-      </c>
-      <c r="F98">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
-        <v>9</v>
-      </c>
-      <c r="F99">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
-        <v>10</v>
-      </c>
-      <c r="F100">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>11</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
-        <v>12</v>
-      </c>
-      <c r="F102">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
-        <v>13</v>
-      </c>
-      <c r="F103">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>14</v>
-      </c>
-      <c r="F104">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>15</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>16</v>
-      </c>
-      <c r="F106">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>17</v>
-      </c>
-      <c r="F107">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>18</v>
-      </c>
-      <c r="F108">
-        <v>0.113</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>19</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>20</v>
-      </c>
-      <c r="F110">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>21</v>
-      </c>
-      <c r="F111">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>22</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>23</v>
-      </c>
-      <c r="F113">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>24</v>
-      </c>
-      <c r="F114">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>25</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>26</v>
-      </c>
-      <c r="F116">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>27</v>
-      </c>
-      <c r="F117">
-        <v>0.999</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>28</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="F119">
-        <f>AVERAGE(F91:F118)</f>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="F120">
+        <f>AVERAGE(F92:F119)</f>
         <v>0.69412142857142844</v>
+      </c>
+      <c r="H120">
+        <f>AVERAGE(H92:H119)</f>
+        <v>0.75335714285714273</v>
+      </c>
+      <c r="L120">
+        <f>SUM(L92:L119)</f>
+        <v>1.6586000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4702,17 +5493,651 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33FF96-9EB9-994B-A906-1A82E9A2985E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10059DA3-3BA7-B147-9186-7971DF5F23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F494E-EFC9-8148-86AC-BAB74E7BAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="25520" windowHeight="17200" activeTab="3" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="10000" windowHeight="17200" activeTab="3" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="classification" sheetId="3" r:id="rId3"/>
     <sheet name="forecasting" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -890,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -899,6 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2683,7 +2684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5375,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356FC20-9241-624A-9167-495081A5015F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5389,100 +5390,100 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2">
-        <v>0.98</v>
-      </c>
-      <c r="C2">
-        <v>6599</v>
-      </c>
-      <c r="D2">
-        <v>2199</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="C3">
-        <v>204</v>
-      </c>
-      <c r="D3">
-        <v>205</v>
-      </c>
-      <c r="E3" s="3">
-        <v>61</v>
-      </c>
-      <c r="F3">
-        <v>405</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4">
-        <v>0.65200000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="C4">
-        <v>30000</v>
+        <v>6599</v>
       </c>
       <c r="D4">
-        <v>20000</v>
+        <v>2199</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C5">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>205</v>
+      </c>
+      <c r="E5" s="3">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>405</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C6">
+        <v>30000</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5493,15 +5494,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33FF96-9EB9-994B-A906-1A82E9A2985E}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5509,15 +5510,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>250</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5527,160 +5528,322 @@
       <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6">
+        <v>0.221</v>
+      </c>
+      <c r="C6">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11">
+        <v>0.187</v>
+      </c>
+      <c r="C11">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15">
+        <v>0.251</v>
+      </c>
+      <c r="C15">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16">
+        <v>0.246</v>
+      </c>
+      <c r="C16">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18">
+        <v>0.111</v>
+      </c>
+      <c r="C18">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19">
+        <v>0.123</v>
+      </c>
+      <c r="C19">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20">
+        <v>0.189</v>
+      </c>
+      <c r="C20">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21">
+        <v>0.182</v>
+      </c>
+      <c r="C21">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23">
+        <v>0.123</v>
+      </c>
+      <c r="C23">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25">
+        <v>0.182</v>
+      </c>
+      <c r="C25">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29">
+        <v>0.254</v>
+      </c>
+      <c r="C29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B30">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>250</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -5690,300 +5853,630 @@
       <c r="C33" t="s">
         <v>249</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>248</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="B35">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="B37">
+        <v>0.499</v>
+      </c>
+      <c r="C37">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="B38">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C38">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="B39">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="B41">
+        <v>0.499</v>
+      </c>
+      <c r="C41">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="B43">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="B44">
+        <v>0.51</v>
+      </c>
+      <c r="C44">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="B45">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="B46">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C49">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.495</v>
+      </c>
+      <c r="C50">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C51">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C53">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C54">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="C55">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C56">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C57">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C58">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C59">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0.436</v>
+      </c>
+      <c r="C61">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0.433</v>
+      </c>
+      <c r="C62">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C63">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C66">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="C67">
+        <v>1.56E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0.434</v>
+      </c>
+      <c r="C68">
+        <v>7.5000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C69" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C71">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C72">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C73">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C74">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="8">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="C75" s="8">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>43</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C76" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C77">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C78">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0.21</v>
+      </c>
+      <c r="C79">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="B80">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="B81">
+        <v>0.247</v>
+      </c>
+      <c r="C81">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="B82">
+        <v>0.224</v>
+      </c>
+      <c r="C82">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="B83">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C83">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="B84" s="8">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="C84" s="8">
+        <v>7.0000000000000005E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="B85">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="B86">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="B87">
+        <v>0.442</v>
+      </c>
+      <c r="C87" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>55</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="B88">
+        <v>0.498</v>
+      </c>
+      <c r="C88">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>250</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="6" t="s">
         <v>10</v>
       </c>
@@ -5993,151 +6486,319 @@
       <c r="C92" t="s">
         <v>249</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>248</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C93">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="B94">
+        <v>0.158</v>
+      </c>
+      <c r="C94">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="B95">
+        <v>0.06</v>
+      </c>
+      <c r="C95">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C96">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C98">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="C99">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C100">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C101">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C102">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0.24</v>
+      </c>
+      <c r="C103">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>0.255</v>
+      </c>
+      <c r="C104">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C105">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C106">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C107">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C108">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0.218</v>
+      </c>
+      <c r="C109">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>0.34</v>
+      </c>
+      <c r="C110">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C111">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C112">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0.24</v>
+      </c>
+      <c r="C113">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>0.314</v>
+      </c>
+      <c r="C114">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>0.128</v>
+      </c>
+      <c r="C115">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="C116">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C117">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C118">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0.154</v>
+      </c>
+      <c r="C119">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>28</v>
+      </c>
+      <c r="B120">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C120">
+        <v>2.21</v>
       </c>
     </row>
   </sheetData>

--- a/results/Book1.xlsx
+++ b/results/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/sparse-binary-transformers/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F494E-EFC9-8148-86AC-BAB74E7BAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB016189-AE01-4A4C-82C9-079F0C098048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="10000" windowHeight="17200" activeTab="3" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
+    <workbookView xWindow="82720" yWindow="-800" windowWidth="27560" windowHeight="17200" activeTab="2" xr2:uid="{E4C4CB0F-2EF6-6141-912F-C3AFE7C5667F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="256">
   <si>
     <t>SMD</t>
   </si>
@@ -808,12 +808,24 @@
   <si>
     <t>Sparse</t>
   </si>
+  <si>
+    <t>with layer norm</t>
+  </si>
+  <si>
+    <t>SPARSE</t>
+  </si>
+  <si>
+    <t>Dense no norm</t>
+  </si>
+  <si>
+    <t>sparse accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -857,8 +869,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +895,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -890,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -900,6 +924,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0BFB9-BEDA-094A-AE18-4B822E274B7D}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="F89" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2695,12 +2720,18 @@
     <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2725,8 +2756,17 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2751,8 +2791,11 @@
       <c r="H3">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2777,8 +2820,11 @@
       <c r="H4">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2803,8 +2849,11 @@
       <c r="H5">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2829,8 +2878,11 @@
       <c r="H6">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2855,8 +2907,11 @@
       <c r="H7">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2881,8 +2936,11 @@
       <c r="H8">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2907,8 +2965,11 @@
       <c r="H9">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2933,8 +2994,11 @@
       <c r="H10">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2959,8 +3023,11 @@
       <c r="H11">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2985,8 +3052,11 @@
       <c r="H12">
         <v>0.97699999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3011,8 +3081,11 @@
       <c r="H13">
         <v>0.96599999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="N13">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3037,8 +3110,11 @@
       <c r="H14">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3063,8 +3139,11 @@
       <c r="H15">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3089,8 +3168,11 @@
       <c r="H16">
         <v>0.80600000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3115,8 +3197,11 @@
       <c r="H17">
         <v>0.754</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3141,8 +3226,11 @@
       <c r="H18">
         <v>0.89700000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3167,8 +3255,11 @@
       <c r="H19">
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3193,8 +3284,11 @@
       <c r="H20">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3219,8 +3313,11 @@
       <c r="H21">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3245,8 +3342,11 @@
       <c r="H22">
         <v>0.92200000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3271,8 +3371,11 @@
       <c r="H23">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3297,8 +3400,11 @@
       <c r="H24">
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="N24">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3323,8 +3429,11 @@
       <c r="H25">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="N25">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3349,8 +3458,11 @@
       <c r="H26">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3375,8 +3487,11 @@
       <c r="H27">
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="N27">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3401,8 +3516,11 @@
       <c r="H28">
         <v>0.878</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="N28">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3416,8 +3534,11 @@
       <c r="H29">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="N29">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="D30">
         <f>AVERAGE(D3:D28)</f>
         <v>0.45592307692307699</v>
@@ -3430,1943 +3551,1896 @@
         <f>AVERAGE(H3:H29)</f>
         <v>0.75377777777777766</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="N30">
+        <f>AVERAGE(N3:N29)</f>
+        <v>0.75544444444444436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="H32" t="s">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>118</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>0.95099999999999996</v>
       </c>
-      <c r="L33">
-        <f>H33-F33</f>
-        <v>-2.7000000000000024E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
+      <c r="N34">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>0.96299999999999997</v>
       </c>
-      <c r="L34">
-        <f t="shared" ref="L34:L87" si="0">H34-F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
+      <c r="N35">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.114</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>0.95899999999999996</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
+      <c r="N36">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.98699999999999999</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>0.98599999999999999</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
+      <c r="N37">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0.999</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F37">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37">
-        <v>0.995</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F38">
         <v>0.99399999999999999</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H38">
         <v>0.995</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="N38">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39">
+        <v>0.995</v>
+      </c>
+      <c r="N39">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
         <v>7</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>0.997</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>0.94299999999999995</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
+      <c r="N40">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>0.77200000000000002</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
+      <c r="N41">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>0.92700000000000005</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
+      <c r="N42">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>0.96899999999999997</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
+      <c r="N43">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>0.999</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.94699999999999995</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>0.94899999999999995</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
+      <c r="N44">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>167</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>0.94</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
+      <c r="N45">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>0.90900000000000003</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>0.91600000000000004</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
+      <c r="N46">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>0.13</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>0.96899999999999997</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>0.96199999999999997</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
         <v>15</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>-7.5000000000000067E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
+      <c r="N48">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
         <v>16</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.02</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>0.66600000000000004</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>0.70199999999999996</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999921E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
+      <c r="N49">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
         <v>17</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>0.999</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>0.995</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <v>0.99299999999999999</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
+      <c r="N50">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
         <v>18</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>0.98099999999999998</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
+      <c r="N51">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
         <v>19</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0.98699999999999999</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>0.98299999999999998</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>-4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52">
+      <c r="N52">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
         <v>20</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0.999</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>0.998</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>0.998</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
+      <c r="N53">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
         <v>21</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>0.97699999999999998</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
+      <c r="N54">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
         <v>22</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>0.999</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>0.99</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
+      <c r="N55">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
         <v>23</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>0.71599999999999997</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
+      <c r="N56">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
         <v>24</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
         <v>25</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>2.7E-2</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>0.753</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>0.70399999999999996</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>-4.9000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
+      <c r="N58">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
         <v>26</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>0.63900000000000001</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>-0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
         <v>27</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>0.01</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>0.59399999999999997</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>0.443</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>-0.15099999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
+      <c r="N60">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
         <v>28</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
+      <c r="N61">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
         <v>29</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>0.64300000000000002</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>0.63500000000000001</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>-8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62">
+      <c r="N62">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
         <v>30</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>0.999</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>0.98699999999999999</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>0.98699999999999999</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63">
+      <c r="N63">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
         <v>31</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>2.3E-2</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>-0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
         <v>32</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>0.11</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
         <v>33</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>0.35299999999999998</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>0.495</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>0.14200000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66">
+      <c r="N66">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
         <v>34</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>0.89</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>-3.5000000000000031E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67">
+      <c r="N67">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
         <v>35</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="0"/>
-        <v>-0.94299999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
         <v>36</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>0.60299999999999998</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>0.63300000000000001</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
         <v>37</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <v>0.98299999999999998</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
         <v>38</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <v>0.99299999999999999</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71">
+      <c r="N71">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
         <v>39</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
         <v>40</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>0.81799999999999995</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>0.89300000000000002</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="0"/>
-        <v>7.5000000000000067E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73">
+      <c r="N73">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
         <v>41</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>0.85299999999999998</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>0.82399999999999995</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>0.82399999999999995</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74">
+      <c r="N74">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
         <v>42</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H74">
+      <c r="H75">
         <v>0.98</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75">
+      <c r="N75">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
         <v>43</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>0.04</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>0.77600000000000002</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H75">
+      <c r="H76">
         <v>0.80200000000000005</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="0"/>
-        <v>2.6000000000000023E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76">
+      <c r="N76">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
         <v>44</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>0.3</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>0.59099999999999997</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H76">
+      <c r="H77">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L76">
-        <f t="shared" si="0"/>
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77">
+      <c r="N77">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
         <v>45</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>0.89</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H77">
+      <c r="H78">
         <v>0.47299999999999998</v>
       </c>
-      <c r="L77">
-        <f t="shared" si="0"/>
-        <v>-9.4999999999999973E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78">
+      <c r="N78">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
         <v>46</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>0.98</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>0.92600000000000005</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>0.98699999999999999</v>
       </c>
-      <c r="L78">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999943E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79">
+      <c r="N79">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
         <v>47</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>0.318</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H79">
+      <c r="H80">
         <v>0.78200000000000003</v>
       </c>
-      <c r="L79">
-        <f t="shared" si="0"/>
-        <v>0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80">
+      <c r="N80">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
         <v>48</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H80">
+      <c r="H81">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81">
+      <c r="N81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
         <v>49</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
         <v>50</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>0.998</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>0.97399999999999998</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>0.99199999999999999</v>
       </c>
-      <c r="L82">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83">
+      <c r="N83">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
         <v>51</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H83">
+      <c r="H84">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L83">
-        <f t="shared" si="0"/>
-        <v>4.2400000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84">
+      <c r="N84">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
         <v>52</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H84">
+      <c r="H85">
         <v>0.98299999999999998</v>
       </c>
-      <c r="L84">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85">
+      <c r="N85">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86">
         <v>53</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>0.98399999999999999</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86">
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
         <v>54</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>0.97</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87">
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88">
         <v>55</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>0.66</v>
       </c>
-      <c r="L87">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="F88">
-        <f>AVERAGE(F33:F87)</f>
+      <c r="N88">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="F89">
+        <f>AVERAGE(F34:F88)</f>
         <v>0.72273818181818184</v>
       </c>
-      <c r="H88">
-        <f>AVERAGE(H33:H87)</f>
+      <c r="H89">
+        <f>AVERAGE(H34:H88)</f>
         <v>0.70172727272727287</v>
       </c>
-      <c r="L88">
-        <f>SUM(L33:L87)</f>
-        <v>-1.1555999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="6" t="s">
+      <c r="N89">
+        <f>AVERAGE(N34:N88)</f>
+        <v>0.67634545454545469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>250</v>
+      </c>
+      <c r="N91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
+      <c r="E92" s="6"/>
+      <c r="F92" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="F92">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="N92" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="F93">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H92">
+      <c r="H93">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L92">
-        <f>H92-F92</f>
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93">
+      <c r="N93">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
         <v>2</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>0.22</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H93">
+      <c r="H94">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L93">
-        <f t="shared" ref="L93:L119" si="1">H93-F93</f>
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94">
+      <c r="N94">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
         <v>3</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2" t="s">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95">
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
         <v>4</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>0.99439999999999995</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" s="2" t="s">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="1"/>
-        <v>5.6000000000000494E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96">
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
         <v>5</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H96">
+      <c r="H97">
         <v>0.999</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L96">
-        <f t="shared" si="1"/>
-        <v>0.20199999999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97">
+      <c r="N97">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
         <v>6</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>0.95499999999999996</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H97">
+      <c r="H98">
         <v>0.998</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L97">
-        <f t="shared" si="1"/>
-        <v>4.3000000000000038E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98">
+      <c r="N98">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
         <v>7</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>0.996</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2" t="s">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L98">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
         <v>8</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H99">
+      <c r="H100">
         <v>0.95499999999999996</v>
       </c>
-      <c r="L99">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100">
+      <c r="N100">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
         <v>9</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>0.32800000000000001</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="1"/>
-        <v>-0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
         <v>10</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <v>0.999</v>
       </c>
-      <c r="L101">
-        <f t="shared" si="1"/>
-        <v>0.30300000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102">
+      <c r="N102">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
         <v>11</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
         <v>12</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>0.49299999999999999</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H103">
+      <c r="H104">
         <v>0.999</v>
       </c>
-      <c r="L103">
-        <f t="shared" si="1"/>
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104">
+      <c r="N104">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
         <v>13</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <v>5.5E-2</v>
       </c>
-      <c r="L104">
-        <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105">
+      <c r="N105">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
         <v>14</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H105">
+      <c r="H106">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L105">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106">
+      <c r="N106">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
         <v>15</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107">
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
         <v>16</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H107">
+      <c r="H108">
         <v>0.997</v>
       </c>
-      <c r="L107">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108">
+      <c r="N108">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
         <v>17</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
         <v>18</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>0.113</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H109">
+      <c r="H110">
         <v>0.997</v>
       </c>
-      <c r="L109">
-        <f t="shared" si="1"/>
-        <v>0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110">
+      <c r="N110">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
         <v>19</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111">
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
         <v>20</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H111">
+      <c r="H112">
         <v>0.97099999999999997</v>
       </c>
-      <c r="L111">
-        <f t="shared" si="1"/>
-        <v>0.15500000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112">
+      <c r="N112">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
         <v>21</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <v>0.85199999999999998</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H112">
+      <c r="H113">
         <v>0.98799999999999999</v>
       </c>
-      <c r="L112">
-        <f t="shared" si="1"/>
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113">
+      <c r="N113">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
         <v>22</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114">
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
         <v>23</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <v>9.4E-2</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="1"/>
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
         <v>24</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="1"/>
-        <v>-0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116">
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
         <v>25</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
         <v>26</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H117">
+      <c r="H118">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L117">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118">
+      <c r="N118">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
         <v>27</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <v>0.999</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H118">
+      <c r="H119">
         <v>0.999</v>
       </c>
-      <c r="L118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
         <v>28</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="F120">
-        <f>AVERAGE(F92:F119)</f>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="F121">
+        <f>AVERAGE(F93:F120)</f>
         <v>0.69412142857142844</v>
       </c>
-      <c r="H120">
-        <f>AVERAGE(H92:H119)</f>
+      <c r="H121">
+        <f>AVERAGE(H93:H120)</f>
         <v>0.75335714285714273</v>
       </c>
-      <c r="L120">
-        <f>SUM(L92:L119)</f>
-        <v>1.6586000000000003</v>
+      <c r="N121">
+        <f>AVERAGE(N93:N120)</f>
+        <v>0.78903571428571417</v>
       </c>
     </row>
   </sheetData>
@@ -5376,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A356FC20-9241-624A-9167-495081A5015F}">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5388,13 +5462,14 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C3" t="s">
@@ -5412,8 +5487,11 @@
       <c r="G3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -5435,8 +5513,11 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -5458,8 +5539,11 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.76439999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -5481,8 +5565,11 @@
       <c r="G6">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H6">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -5494,15 +5581,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33FF96-9EB9-994B-A906-1A82E9A2985E}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5510,15 +5597,21 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>250</v>
       </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
       <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5534,8 +5627,14 @@
       <c r="F3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5545,8 +5644,20 @@
       <c r="C4">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <v>0.216</v>
+      </c>
+      <c r="F4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5556,8 +5667,20 @@
       <c r="C5">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.188</v>
+      </c>
+      <c r="H5">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5567,8 +5690,20 @@
       <c r="C6">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.21</v>
+      </c>
+      <c r="I6">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5578,8 +5713,20 @@
       <c r="C7">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7">
+        <v>0.215</v>
+      </c>
+      <c r="F7">
+        <v>0.114</v>
+      </c>
+      <c r="H7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5589,8 +5736,20 @@
       <c r="C8">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5600,8 +5759,20 @@
       <c r="C9">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5611,8 +5782,20 @@
       <c r="C10">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <v>0.153</v>
+      </c>
+      <c r="F10">
+        <v>0.309</v>
+      </c>
+      <c r="H10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5622,8 +5805,20 @@
       <c r="C11">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>0.218</v>
+      </c>
+      <c r="F11">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.184</v>
+      </c>
+      <c r="I11">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5633,8 +5828,20 @@
       <c r="C12">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.151</v>
+      </c>
+      <c r="H12">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5644,8 +5851,20 @@
       <c r="C13">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13">
+        <v>0.34</v>
+      </c>
+      <c r="F13">
+        <v>0.155</v>
+      </c>
+      <c r="H13">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5655,8 +5874,20 @@
       <c r="C14">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.217</v>
+      </c>
+      <c r="H14">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5666,8 +5897,20 @@
       <c r="C15">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I15">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5677,8 +5920,20 @@
       <c r="C16">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16">
+        <v>0.248</v>
+      </c>
+      <c r="F16">
+        <v>0.152</v>
+      </c>
+      <c r="H16">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5688,8 +5943,20 @@
       <c r="C17">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5699,8 +5966,20 @@
       <c r="C18">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18">
+        <v>0.129</v>
+      </c>
+      <c r="F18">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H18">
+        <v>0.123</v>
+      </c>
+      <c r="I18">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5710,8 +5989,20 @@
       <c r="C19">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19">
+        <v>0.129</v>
+      </c>
+      <c r="F19">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H19">
+        <v>0.1244</v>
+      </c>
+      <c r="I19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5721,8 +6012,20 @@
       <c r="C20">
         <v>0.16900000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20">
+        <v>0.189</v>
+      </c>
+      <c r="F20">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.192</v>
+      </c>
+      <c r="I20">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5732,8 +6035,20 @@
       <c r="C21">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.129</v>
+      </c>
+      <c r="H21">
+        <v>0.193</v>
+      </c>
+      <c r="I21">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5743,8 +6058,20 @@
       <c r="C22">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F22">
+        <v>3.8</v>
+      </c>
+      <c r="H22">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5754,8 +6081,20 @@
       <c r="C23">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>0.219</v>
+      </c>
+      <c r="H23">
+        <v>0.12</v>
+      </c>
+      <c r="I23">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5765,8 +6104,20 @@
       <c r="C24">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24">
+        <v>0.15</v>
+      </c>
+      <c r="F24">
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5776,8 +6127,20 @@
       <c r="C25">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25">
+        <v>0.189</v>
+      </c>
+      <c r="F25">
+        <v>0.09</v>
+      </c>
+      <c r="H25">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5787,8 +6150,20 @@
       <c r="C26">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H26">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5798,8 +6173,20 @@
       <c r="C27">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27">
+        <v>0.23</v>
+      </c>
+      <c r="F27">
+        <v>0.17</v>
+      </c>
+      <c r="H27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5809,8 +6196,20 @@
       <c r="C28">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.105</v>
+      </c>
+      <c r="H28">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5820,8 +6219,20 @@
       <c r="C29">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.252</v>
+      </c>
+      <c r="I29">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5831,294 +6242,321 @@
       <c r="C30">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="E30">
+        <v>0.192</v>
+      </c>
+      <c r="F30">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31">
+        <f>AVERAGE(B4:B30)</f>
+        <v>0.20718518518518519</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:I31" si="0">AVERAGE(C4:C30)</f>
+        <v>0.26677777777777778</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.21662962962962967</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.43348148148148141</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.20768148148148147</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.24288888888888888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>250</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>248</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>249</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H34" t="s">
         <v>248</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I34" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>0.41899999999999998</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.52100000000000002</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.49099999999999999</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.499</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>0.52600000000000002</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>0.62</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>0.52200000000000002</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.49199999999999999</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>0.499</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>0.52200000000000002</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>10</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>0.51100000000000001</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>0.628</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.51</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>12</v>
-      </c>
-      <c r="B45">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C45">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>13</v>
       </c>
       <c r="B46">
         <v>0.48099999999999998</v>
       </c>
       <c r="C46">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C47">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>14</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>0.48799999999999999</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="C48">
-        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>0.54600000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C49">
-        <v>0.54600000000000004</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>0.495</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C50">
-        <v>0.72199999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>0.53500000000000003</v>
+        <v>0.495</v>
       </c>
       <c r="C51">
-        <v>0.71899999999999997</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>0.51300000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C52">
-        <v>0.61699999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>0.58399999999999996</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="C53">
-        <v>0.56100000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>0.55300000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C54">
-        <v>0.59399999999999997</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>0.54700000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C55">
-        <v>0.66500000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>0.57299999999999995</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C56">
-        <v>0.47499999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>0.58299999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="C57">
         <v>0.47499999999999998</v>
@@ -6126,678 +6564,689 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>0.56200000000000006</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="C58">
-        <v>0.46200000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>0.58799999999999997</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="C59">
-        <v>0.496</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>0.46800000000000003</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C60">
-        <v>0.86599999999999999</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>0.436</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C61">
-        <v>0.69499999999999995</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>0.433</v>
+        <v>0.436</v>
       </c>
       <c r="C62">
-        <v>0.69699999999999995</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>0.55300000000000005</v>
+        <v>0.433</v>
       </c>
       <c r="C63">
-        <v>0.69099999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>0.48799999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C64">
-        <v>0.623</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>0.51500000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C65">
-        <v>0.71499999999999997</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>0.57199999999999995</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C66">
-        <v>0.47399999999999998</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67">
-        <v>1.3999999999999999E-4</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C67">
-        <v>1.56E-4</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68">
-        <v>0.434</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="C68">
-        <v>7.5000000000000002E-4</v>
+        <v>1.56E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="C69" s="8">
-        <v>5.0000000000000002E-5</v>
+        <v>0.434</v>
+      </c>
+      <c r="C69">
+        <v>7.5000000000000002E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>0.48199999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="C70" s="8">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C71">
-        <v>3.7999999999999999E-2</v>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72">
-        <v>0.29199999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C72">
-        <v>8.9999999999999993E-3</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73">
-        <v>0.38600000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C73">
-        <v>8.0000000000000004E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74">
-        <v>0.17499999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C74">
-        <v>3.4000000000000002E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>42</v>
-      </c>
-      <c r="B75" s="8">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="C75" s="8">
-        <v>6.0000000000000002E-5</v>
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C75">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>43</v>
-      </c>
-      <c r="B76">
-        <v>0.34899999999999998</v>
+        <v>42</v>
+      </c>
+      <c r="B76" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="C76" s="8">
-        <v>9.9999999999999995E-7</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="C77">
-        <v>1.3299999999999999E-2</v>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C77" s="8">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78">
-        <v>2.9000000000000001E-2</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C78">
-        <v>4.2999999999999997E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79">
-        <v>0.21</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C79">
-        <v>3.7000000000000002E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="C80" s="8">
-        <v>1.0000000000000001E-5</v>
+        <v>0.21</v>
+      </c>
+      <c r="C80">
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81">
-        <v>0.247</v>
-      </c>
-      <c r="C81">
-        <v>0.154</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82">
-        <v>0.224</v>
+        <v>0.247</v>
       </c>
       <c r="C82">
-        <v>0.27600000000000002</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83">
-        <v>0.31900000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="C83">
-        <v>5.7999999999999996E-3</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>51</v>
-      </c>
-      <c r="B84" s="8">
-        <v>5.9999999999999995E-8</v>
-      </c>
-      <c r="C84" s="8">
-        <v>7.0000000000000005E-8</v>
+        <v>50</v>
+      </c>
+      <c r="B84">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C84">
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>52</v>
-      </c>
-      <c r="B85">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="C85">
-        <v>0.71199999999999997</v>
+        <v>51</v>
+      </c>
+      <c r="B85" s="8">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="C85" s="8">
+        <v>7.0000000000000005E-8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>0.46600000000000003</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C86">
-        <v>5.0000000000000001E-3</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>0.442</v>
-      </c>
-      <c r="C87" s="8">
-        <v>2.0000000000000002E-5</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C87">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
+        <v>54</v>
+      </c>
+      <c r="B88">
+        <v>0.442</v>
+      </c>
+      <c r="C88" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
         <v>55</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>0.498</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>250</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>248</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>249</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>248</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="C93">
-        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>0.158</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C94">
-        <v>0.12</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>0.06</v>
+        <v>0.158</v>
       </c>
       <c r="C95">
-        <v>2.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>0.28100000000000003</v>
+        <v>0.06</v>
       </c>
       <c r="C96">
-        <v>0.151</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>0.14699999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C97">
-        <v>0.19600000000000001</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>0.28100000000000003</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C98">
-        <v>0.157</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99">
-        <v>0.38300000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C99">
-        <v>0.42399999999999999</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100">
-        <v>0.20200000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="C100">
-        <v>0.60399999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>0.20200000000000001</v>
       </c>
       <c r="C101">
-        <v>8.5999999999999993E-2</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>0.13200000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C102">
-        <v>0.13600000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>0.24</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="C103">
-        <v>0.36899999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>0.255</v>
+        <v>0.24</v>
       </c>
       <c r="C104">
-        <v>0.13400000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105">
-        <v>0.26500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="C105">
-        <v>9.7000000000000003E-2</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>0.19400000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C106">
-        <v>0.35299999999999998</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107">
-        <v>0.27100000000000002</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C107">
-        <v>0.53100000000000003</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108">
-        <v>0.14899999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C108">
-        <v>0.16500000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109">
-        <v>0.218</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="C109">
-        <v>0.16800000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>0.34</v>
+        <v>0.218</v>
       </c>
       <c r="C110">
-        <v>0.22</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111">
-        <v>0.19700000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="C111">
-        <v>0.193</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112">
-        <v>0.17399999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C112">
-        <v>0.377</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B113">
-        <v>0.24</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C113">
-        <v>0.186</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114">
-        <v>0.314</v>
+        <v>0.24</v>
       </c>
       <c r="C114">
-        <v>1.04</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115">
-        <v>0.128</v>
+        <v>0.314</v>
       </c>
       <c r="C115">
-        <v>8.7999999999999995E-2</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>0.43099999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="C116">
-        <v>0.629</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>0.19900000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C117">
-        <v>0.49399999999999999</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>0.27300000000000002</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C118">
-        <v>0.33900000000000002</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119">
-        <v>0.154</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C119">
-        <v>0.68</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
+        <v>27</v>
+      </c>
+      <c r="B120">
+        <v>0.154</v>
+      </c>
+      <c r="C120">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
         <v>28</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>6.2E-2</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>2.21</v>
       </c>
     </row>
